--- a/data.xlsx
+++ b/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lv.vanegas10\Documents\PG1\Networks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauva\Documents\Flujo en redes\Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1050 Arastadero" sheetId="1" r:id="rId1"/>
@@ -1234,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5489,8 +5489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
